--- a/Running projects/Gul Ahmed Energy Limited/PO/001- Purchase order- for VRF indoor units - GREE.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/PO/001- Purchase order- for VRF indoor units - GREE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Gul Ahmed Energy Limited\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBD9D34-E28E-496E-A463-0FD6047D55EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DB8A0D-469B-4DC0-BF4A-A06FE38C842C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$53</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$24:$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>S No.</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>3) 5 Lacs old outstanding amount settelled with advance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PURCHASE ORDER </t>
   </si>
   <si>
     <t>Nos</t>
@@ -151,6 +148,16 @@
   </si>
   <si>
     <t>Y-Joint</t>
+  </si>
+  <si>
+    <t>SUPPLY OF "GREE" BRAND MULTI VRF INDOOR DC INVERTER UNITS. Cassette Type Indoor 
+Cooling Capacity : 2.0 TR</t>
+  </si>
+  <si>
+    <t>Y-Branches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVISED PURCHASE ORDER </t>
   </si>
 </sst>
 </file>
@@ -464,17 +471,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -574,13 +581,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>122341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -648,13 +655,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>150247</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>111122</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -984,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:I48"/>
+  <dimension ref="A7:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1010,16 +1017,16 @@
     <row r="12" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1"/>
       <c r="F13" s="10">
-        <v>45468</v>
+        <v>45540</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1"/>
       <c r="F14" s="10"/>
@@ -1031,7 +1038,7 @@
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -1040,16 +1047,16 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -1062,14 +1069,14 @@
     <row r="21" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
+      <c r="A23" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -1109,13 +1116,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="25">
         <v>135000</v>
@@ -1132,13 +1139,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="25">
         <v>135000</v>
@@ -1155,13 +1162,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="25">
         <v>135000</v>
@@ -1178,13 +1185,13 @@
         <v>4</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29" s="25">
         <v>135000</v>
@@ -1201,13 +1208,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="25">
         <v>320000</v>
@@ -1224,13 +1231,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="25">
         <v>320000</v>
@@ -1247,13 +1254,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="6">
         <v>6</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="25">
         <v>20000</v>
@@ -1265,125 +1272,171 @@
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="30" t="s">
+    <row r="33" spans="1:8" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>8</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="25">
+        <v>265000</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" ref="F33:F34" si="1">E33*C33</f>
+        <v>265000</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>9</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="25">
+        <v>20000</v>
+      </c>
+      <c r="F34" s="25">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="19">
-        <f>SUM(F25:F32)</f>
-        <v>1300000</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="20">
-        <f>F33*5%</f>
-        <v>65000</v>
-      </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="21">
-        <f>F33-F34</f>
-        <v>1235000</v>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="19">
+        <f>SUM(F26:F34)</f>
+        <v>1585000</v>
       </c>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="20">
+        <f>F35*5%</f>
+        <v>79250</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="21">
+        <f>F35-F36</f>
+        <v>1505750</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26" t="s">
+    <row r="41" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
     </row>
     <row r="42" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
     </row>
     <row r="43" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:8" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="15" t="s">
+    <row r="46" spans="1:8" ht="6.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+    </row>
+    <row r="47" spans="1:8" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="18"/>
-    </row>
-    <row r="46" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-    </row>
-    <row r="47" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-    </row>
-    <row r="48" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="18"/>
+    </row>
+    <row r="48" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+    </row>
+    <row r="50" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A39:F40"/>
+    <mergeCell ref="A41:F42"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A18:F18"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A17:F17"/>
   </mergeCells>
